--- a/downloaded_files/ARCS205_Tutorial-35219.xlsx
+++ b/downloaded_files/ARCS205_Tutorial-35219.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -217,15 +217,6 @@
   </x:si>
   <x:si>
     <x:t>Abdallah Wael Abdel Razek El Said Mwafy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ليلى محمد محمود محمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layla Mohamed Mahmoud Mohamed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240151</x:t>
@@ -386,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1447,7 +1438,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6691388889</x:v>
+        <x:v>45907.6766508102</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6766508102</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45907.6666286227</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6666286227</x:v>
+        <x:v>45907.6671581019</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6671581019</x:v>
+        <x:v>45907.6652211806</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1592,38 +1583,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45907.6652211806</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
